--- a/data/Carrizo_telemetry_2018_8.xlsx
+++ b/data/Carrizo_telemetry_2018_8.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5421" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5421" uniqueCount="127">
   <si>
     <t>year</t>
   </si>
@@ -381,9 +381,6 @@
     <t>shrub canopy</t>
   </si>
   <si>
-    <t>near ephedra but not in</t>
-  </si>
-  <si>
     <t>malory, nargol</t>
   </si>
   <si>
@@ -480,8 +477,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -530,7 +529,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="37">
+  <cellStyles count="39">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -549,6 +548,7 @@
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -567,6 +567,7 @@
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -848,7 +849,7 @@
   <dimension ref="A1:S842"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L3" sqref="A1:S842"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -38886,14 +38887,14 @@
       <c r="L756" t="s">
         <v>21</v>
       </c>
-      <c r="M756" t="s">
+      <c r="M756" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="P756" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q756" t="s">
         <v>118</v>
-      </c>
-      <c r="P756" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q756" t="s">
-        <v>119</v>
       </c>
       <c r="S756">
         <v>1.8919999999999999</v>
@@ -38943,7 +38944,7 @@
         <v>24</v>
       </c>
       <c r="Q757" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S757">
         <v>1.7090000000000001</v>
@@ -38993,13 +38994,13 @@
         <v>22</v>
       </c>
       <c r="O758" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P758" t="s">
         <v>24</v>
       </c>
       <c r="Q758" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S758">
         <v>1.8460000000000001</v>
@@ -39049,7 +39050,7 @@
         <v>24</v>
       </c>
       <c r="Q759" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S759">
         <v>1.5740000000000001</v>
@@ -39099,7 +39100,7 @@
         <v>28</v>
       </c>
       <c r="Q760" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S760">
         <v>1.3260000000000001</v>
@@ -39155,7 +39156,7 @@
         <v>28</v>
       </c>
       <c r="Q761" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S761">
         <v>1.4419999999999999</v>
@@ -39208,7 +39209,7 @@
         <v>24</v>
       </c>
       <c r="Q762" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S762">
         <v>1.919</v>
@@ -39258,7 +39259,7 @@
         <v>28</v>
       </c>
       <c r="Q763" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S763">
         <v>1.399</v>
@@ -39308,13 +39309,13 @@
         <v>22</v>
       </c>
       <c r="O764" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P764" t="s">
         <v>24</v>
       </c>
       <c r="Q764" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S764">
         <v>1.41</v>
@@ -39364,7 +39365,7 @@
         <v>24</v>
       </c>
       <c r="Q765" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S765">
         <v>1.8320000000000001</v>
@@ -39417,7 +39418,7 @@
         <v>28</v>
       </c>
       <c r="Q766" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S766">
         <v>1.45</v>
@@ -39464,13 +39465,13 @@
         <v>116</v>
       </c>
       <c r="N767" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P767" t="s">
         <v>28</v>
       </c>
       <c r="Q767" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S767">
         <v>1.526</v>
@@ -39523,7 +39524,7 @@
         <v>28</v>
       </c>
       <c r="Q768" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S768">
         <v>1.3260000000000001</v>
@@ -39567,7 +39568,7 @@
         <v>21</v>
       </c>
       <c r="M769" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="N769" t="s">
         <v>23</v>
@@ -39576,7 +39577,7 @@
         <v>24</v>
       </c>
       <c r="Q769" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S769">
         <v>1.486</v>
@@ -39629,7 +39630,7 @@
         <v>24</v>
       </c>
       <c r="Q770" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S770">
         <v>1.5940000000000001</v>
@@ -39682,7 +39683,7 @@
         <v>24</v>
       </c>
       <c r="Q771" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S771">
         <v>1.833</v>
@@ -39732,7 +39733,7 @@
         <v>24</v>
       </c>
       <c r="Q772" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S772">
         <v>1.365</v>
@@ -39782,7 +39783,7 @@
         <v>24</v>
       </c>
       <c r="Q773" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S773">
         <v>1.9239999999999999</v>
@@ -39835,7 +39836,7 @@
         <v>28</v>
       </c>
       <c r="Q774" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S774">
         <v>1.4670000000000001</v>
@@ -39885,7 +39886,7 @@
         <v>24</v>
       </c>
       <c r="Q775" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S775">
         <v>1.5</v>
@@ -39938,7 +39939,7 @@
         <v>28</v>
       </c>
       <c r="Q776" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S776">
         <v>1.3260000000000001</v>
@@ -39988,7 +39989,7 @@
         <v>28</v>
       </c>
       <c r="Q777" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S777">
         <v>1.365</v>
@@ -40038,7 +40039,7 @@
         <v>24</v>
       </c>
       <c r="Q778" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S778">
         <v>1.98</v>
@@ -40088,7 +40089,7 @@
         <v>28</v>
       </c>
       <c r="Q779" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S779">
         <v>1.4359999999999999</v>
@@ -40138,7 +40139,7 @@
         <v>24</v>
       </c>
       <c r="Q780" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S780">
         <v>1.5349999999999999</v>
@@ -40188,7 +40189,7 @@
         <v>24</v>
       </c>
       <c r="Q781" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S781">
         <v>1.3779999999999999</v>
@@ -40241,7 +40242,7 @@
         <v>48</v>
       </c>
       <c r="Q782" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S782">
         <v>1.5009999999999999</v>
@@ -40291,7 +40292,7 @@
         <v>24</v>
       </c>
       <c r="Q783" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S783">
         <v>1.962</v>
@@ -40341,7 +40342,7 @@
         <v>24</v>
       </c>
       <c r="Q784" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S784">
         <v>1.8640000000000001</v>
@@ -41689,7 +41690,7 @@
         <v>110</v>
       </c>
       <c r="P810" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q810" t="s">
         <v>108</v>
@@ -41789,7 +41790,7 @@
         <v>117</v>
       </c>
       <c r="P812" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q812" t="s">
         <v>108</v>
@@ -41839,7 +41840,7 @@
         <v>117</v>
       </c>
       <c r="N813" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P813" t="s">
         <v>24</v>
@@ -42057,7 +42058,7 @@
         <v>23</v>
       </c>
       <c r="O817" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P817" t="s">
         <v>28</v>
@@ -42534,7 +42535,7 @@
         <v>22</v>
       </c>
       <c r="O826" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P826" t="s">
         <v>28</v>
@@ -42908,7 +42909,7 @@
         <v>23</v>
       </c>
       <c r="O833" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P833" t="s">
         <v>24</v>
@@ -42961,7 +42962,7 @@
         <v>23</v>
       </c>
       <c r="N834" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P834" t="s">
         <v>28</v>
